--- a/data/respirometry/middle/final_rates/300_rates.xlsx
+++ b/data/respirometry/middle/final_rates/300_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z2">
-        <v>-0.1378156980003094</v>
+        <v>-0.1272545377268952</v>
       </c>
       <c r="AB2">
-        <v>-0.005512627920012377</v>
+        <v>-573.0607906656857</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.005512627920012377</v>
+        <v>-573.0607906656857</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z3">
-        <v>-0.1742429049362943</v>
+        <v>-0.1605930463497094</v>
       </c>
       <c r="AB3">
-        <v>-0.006969716197451772</v>
+        <v>-625.982895052189</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.006969716197451772</v>
+        <v>-625.982895052189</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z4">
-        <v>-0.1342667849843046</v>
+        <v>-0.1284305000115185</v>
       </c>
       <c r="AB4">
-        <v>-0.005370671399372183</v>
+        <v>-515.533751060167</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.005370671399372183</v>
+        <v>-515.533751060167</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z5">
-        <v>-0.1653100181342391</v>
+        <v>-0.1573829150353515</v>
       </c>
       <c r="AB5">
-        <v>-0.006612400725369563</v>
+        <v>-755.6770044009154</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.006612400725369563</v>
+        <v>-755.6770044009154</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z6">
-        <v>-0.2019355913569314</v>
+        <v>-0.1931961599169131</v>
       </c>
       <c r="AB6">
-        <v>-0.008077423654277256</v>
+        <v>-1202.109439483015</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.008077423654277256</v>
+        <v>-1202.109439483015</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z7">
-        <v>-0.1130695097234539</v>
+        <v>-0.106547518748761</v>
       </c>
       <c r="AB7">
-        <v>-0.004522780388938156</v>
+        <v>-474.0443109150387</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.004522780388938156</v>
+        <v>-474.0443109150387</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,18 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>0</v>
+          <t>umolO2/min/m2</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1181,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z9">
-        <v>0.1259222913264229</v>
+        <v>0.1162725524360758</v>
       </c>
       <c r="AB9">
-        <v>0.005036891653056915</v>
+        <v>523.6060106142095</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.005036891653056915</v>
+        <v>523.6060106142095</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1268,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z10">
-        <v>0.1057425630086554</v>
+        <v>0.09745889124492468</v>
       </c>
       <c r="AB10">
-        <v>0.004229702520346215</v>
+        <v>379.8894178594975</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.004229702520346215</v>
+        <v>379.8894178594975</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1355,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z11">
-        <v>0.1827732476308365</v>
+        <v>0.1748284922790208</v>
       </c>
       <c r="AB11">
-        <v>0.007310929905233461</v>
+        <v>701.7802500863388</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.007310929905233461</v>
+        <v>701.7802500863388</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1442,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z12">
-        <v>0.2289922466615382</v>
+        <v>0.2180113928172306</v>
       </c>
       <c r="AB12">
-        <v>0.009159689866461528</v>
+        <v>1046.785772219244</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.009159689866461528</v>
+        <v>1046.785772219244</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1529,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z13">
-        <v>0.193480413999756</v>
+        <v>0.1851069083597895</v>
       </c>
       <c r="AB13">
-        <v>0.007739216559990241</v>
+        <v>1151.776318683135</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.007739216559990241</v>
+        <v>1151.776318683135</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1616,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z14">
-        <v>0.1092650913246029</v>
+        <v>0.1029625439693433</v>
       </c>
       <c r="AB14">
-        <v>0.004370603652984115</v>
+        <v>458.094273608547</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.004370603652984115</v>
+        <v>458.094273608547</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1703,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>8.314494643347914E-05</v>
-      </c>
-      <c r="AB15">
-        <v>3.325797857339166E-06</v>
+        <v>8.312341187081832E-05</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>3.325797857339166E-06</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
